--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22845,4 +22846,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>366</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>221</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22854,7 +22855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22865,17 +22866,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22885,14 +22906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>366</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.25</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -22901,13 +22944,8393 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6637</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1365</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009244</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>43.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002749</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>嘉实稳盛债券</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>003379</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>009245</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国寿安保稳丰6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>003380</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>34.01</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>220</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>221</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31261,7 +31262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31272,17 +31273,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -31292,14 +31313,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>220</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.85</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -31308,14 +31351,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>366</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.25</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -31324,13 +31389,5177 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6517</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>136</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>220</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>366</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>221</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36474,7 +36475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36485,17 +36486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -36505,14 +36526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>136</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.24</v>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -36521,14 +36564,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>220</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.85</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -36537,14 +36602,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>366</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.25</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -36553,13 +36640,2807 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003432</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165526</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合(LOF) A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165527</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合(LOF) C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003433</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>220</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>366</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>221</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>10.05</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>28.24</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D4" t="n">
-        <v>51.85</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="D5" t="n">
-        <v>64.25</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>366</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>221</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -566,6 +583,2944 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银均衡收益混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165527</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>165526</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3429,7 +6384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8641,7 +11596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17047,7 +20002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31001,7 +33956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600905-三峡能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>8.039999999999999</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>10.05</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>28.24</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D5" t="n">
-        <v>51.85</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="D6" t="n">
-        <v>64.25</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>366</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>221</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.51</v>
       </c>
     </row>
@@ -583,6 +600,2982 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014241</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银均衡收益混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003379</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005652</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国富天颐混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003432</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003433</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005653</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国富天颐混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003380</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3520,7 +6513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6384,7 +9377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11596,7 +14589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20002,7 +22995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33956,7 +36949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
